--- a/Data/Search/k_fold_results_2HL_lr.xlsx
+++ b/Data/Search/k_fold_results_2HL_lr.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\Data\Search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5F24C103-A4BA-4DA4-A21E-5673FFC0F114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F099D4F7-A69A-47F9-9B0F-F2BCDB16ECB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="k_fold_results_2HL_lr" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>2_15-9_30_0.0001: 0.006495858801362122</t>
   </si>
@@ -131,12 +141,18 @@
   </si>
   <si>
     <t>2_15-9_30_1: 0.013993622698158487</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -679,6 +695,1036 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>d</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>k_fold_results_2HL_lr!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.9999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>k_fold_results_2HL_lr!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.4958588013621201E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1723550081627899E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.88396244214972E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7246773278832302E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6503243816114698E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4323672623999702E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3614987915039597E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1835433729489899E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2962597668173199E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9104317935944799E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B343-4C45-BD34-6E18B71E5982}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="637531984"/>
+        <c:axId val="636704128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="637531984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000002E-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t>Learning Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636704128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="636704128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t>Average MSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="637531984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>65721</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D6216E-07A5-44B9-8C6C-CBD85E167123}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -977,11 +2023,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,192 +2035,423 @@
     <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2">
+        <v>1E-4</v>
+      </c>
+      <c r="D2">
+        <v>6.4958588013621201E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D3">
+        <v>5.1723550081627899E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D4">
+        <v>4.88396244214972E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C5">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D5">
+        <v>4.7246773278832302E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C6">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D6">
+        <v>4.6503243816114698E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C7">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D7">
+        <v>4.4323672623999702E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C8">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D8">
+        <v>4.3614987915039597E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C9">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D9">
+        <v>4.1835433729489899E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C10">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="D10">
+        <v>4.2962597668173199E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C11">
+        <v>1E-3</v>
+      </c>
+      <c r="D11">
+        <v>3.9104317935944799E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C12">
+        <v>2E-3</v>
+      </c>
+      <c r="D12">
+        <v>5.1904457799258298E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D13">
+        <v>5.6138520650596199E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C14">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D14">
+        <v>1.6136326640905099E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D15">
+        <v>1.0932196365697399E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D16">
+        <v>1.6529465195611898E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D17">
+        <v>2.1235786123496501E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D18">
+        <v>2.6356697406205502E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C19">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D19">
+        <v>2.5152703377803599E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C20">
+        <v>0.01</v>
+      </c>
+      <c r="D20">
+        <v>2.7047949832226401E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C21">
+        <v>0.02</v>
+      </c>
+      <c r="D21">
+        <v>2.15180496084659E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C22">
+        <v>0.03</v>
+      </c>
+      <c r="D22">
+        <v>2.5187849930151999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C23">
+        <v>0.04</v>
+      </c>
+      <c r="D23">
+        <v>2.2703107688132201E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C24">
+        <v>0.05</v>
+      </c>
+      <c r="D24">
+        <v>2.63317063781549E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C25">
+        <v>0.06</v>
+      </c>
+      <c r="D25">
+        <v>3.2277930382448097E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D26">
+        <v>1.2801535214368999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C27">
+        <v>0.08</v>
+      </c>
+      <c r="D27">
+        <v>2.0365936129832798E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C28">
+        <v>0.09</v>
+      </c>
+      <c r="D28">
+        <v>1.46077845437339E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C29">
+        <v>0.1</v>
+      </c>
+      <c r="D29">
+        <v>1.56286645362947E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="C30">
+        <v>0.2</v>
+      </c>
+      <c r="D30">
+        <v>1.18428638127093E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C31">
+        <v>0.3</v>
+      </c>
+      <c r="D31">
+        <v>7.3074915501248503E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C32">
+        <v>0.4</v>
+      </c>
+      <c r="D32">
+        <v>1.1945340666994099E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C33">
+        <v>0.5</v>
+      </c>
+      <c r="D33">
+        <v>1.4120792360522799E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C34">
+        <v>0.6</v>
+      </c>
+      <c r="D34">
+        <v>1.26639589432737E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C35">
+        <v>0.7</v>
+      </c>
+      <c r="D35">
+        <v>1.53513345733586E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="C36">
+        <v>0.8</v>
+      </c>
+      <c r="D36">
+        <v>1.8399822824277701E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="C37">
+        <v>0.9</v>
+      </c>
+      <c r="D37">
+        <v>1.13822048562379E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1.39936226981584E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>